--- a/project_stuff/project plan.xlsx
+++ b/project_stuff/project plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
   <si>
     <t>Project Plan</t>
   </si>
@@ -129,9 +129,6 @@
     <t>week 12</t>
   </si>
   <si>
-    <t>Concluding basic implementation.</t>
-  </si>
-  <si>
     <t>week 13</t>
   </si>
   <si>
@@ -211,10 +208,127 @@
   </si>
   <si>
     <r>
+      <t>Code:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Trying to apply the naïve method to spheres and cubes </t>
+    </r>
+    <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(works but with banding artifact</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">), then extending to general geometry </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(probably works, but needs testing)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Start implementation of conservative rasterization, first step of the method </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(no time)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Writing: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Writing summary  of related work section, with the most relevant papers outlined. (needs some additions still)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Writing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Finishing related work section</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Writing: Related Works </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -223,152 +337,18 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>: Extending naïve implementation on GPU (?) Start implementing method (rasterization)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Writing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>: Finishing related work section</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Writing: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Writing summary  of related work section, with the most relevant papers outlined. (needs some additions still)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Code</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Trying to apply the naïve method to spheres and cubes </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(works but with banding artifact</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">then extending to general geometry </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(probably works, but needs testing)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. Start implementation of conservative rasterization, first step of the method </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(no time)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Continuing basic implementation</t>
+      <t>: Implemented naïve implementation on CPU with the base Jensen et al. dipole and the Better Dipole by D'Eon et al. directional dipole shows some overshooting</t>
+    </r>
+  </si>
+  <si>
+    <t>Implementing initial part of my method (reasoning how to do that)</t>
+  </si>
+  <si>
+    <t>Basic implementation continuing</t>
   </si>
 </sst>
 </file>
@@ -421,25 +401,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFC00000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -447,7 +408,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFC00000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -472,7 +454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -499,10 +481,16 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -874,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,7 +874,7 @@
     <col min="2" max="2" width="10.85546875" style="1"/>
     <col min="3" max="3" width="10" style="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="60.140625"/>
+    <col min="5" max="5" width="61.5703125" customWidth="1"/>
     <col min="6" max="6" width="42.5703125"/>
     <col min="7" max="7" width="25.7109375"/>
     <col min="8" max="8" width="19.28515625"/>
@@ -1052,8 +1040,8 @@
       <c r="D13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>55</v>
+      <c r="E13" s="13" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1061,11 +1049,11 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="10"/>
-      <c r="E14" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="E14" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>23</v>
       </c>
@@ -1078,8 +1066,8 @@
       <c r="D15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>52</v>
+      <c r="E15" s="15" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1087,11 +1075,11 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>24</v>
       </c>
@@ -1104,258 +1092,267 @@
       <c r="D17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="12" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="7">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="7">
         <v>41722</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C19" s="7">
         <v>41728</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="7">
-        <v>41729</v>
-      </c>
-      <c r="C19" s="7">
-        <v>41735</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="7">
+        <v>41729</v>
+      </c>
+      <c r="C20" s="7">
+        <v>41735</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="7">
+        <v>41736</v>
+      </c>
+      <c r="C21" s="7">
+        <v>41742</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="7">
-        <v>41736</v>
-      </c>
-      <c r="C20" s="7">
-        <v>41742</v>
-      </c>
-      <c r="D20" s="8" t="s">
+      <c r="E21" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="7">
+        <v>41743</v>
+      </c>
+      <c r="C22" s="7">
+        <v>41749</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="7">
-        <v>41743</v>
-      </c>
-      <c r="C21" s="7">
-        <v>41749</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="B23" s="7">
+        <v>41750</v>
+      </c>
+      <c r="C23" s="7">
+        <v>41756</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="7">
+        <v>41757</v>
+      </c>
+      <c r="C24" s="7">
+        <v>41763</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="7">
-        <v>41750</v>
-      </c>
-      <c r="C22" s="7">
-        <v>41756</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="11"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="7">
+        <v>41764</v>
+      </c>
+      <c r="C25" s="7">
+        <v>41770</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="7">
-        <v>41757</v>
-      </c>
-      <c r="C23" s="7">
-        <v>41763</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="7">
-        <v>41764</v>
-      </c>
-      <c r="C24" s="7">
-        <v>41770</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="7">
-        <v>41771</v>
-      </c>
-      <c r="C25" s="7">
-        <v>41777</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="7">
+        <v>41771</v>
+      </c>
+      <c r="C26" s="7">
+        <v>41777</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="7">
+        <v>41778</v>
+      </c>
+      <c r="C27" s="7">
+        <v>41784</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="7">
-        <v>41778</v>
-      </c>
-      <c r="C26" s="7">
-        <v>41784</v>
-      </c>
-      <c r="D26" s="8" t="s">
+      <c r="E27" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="7">
-        <v>41785</v>
-      </c>
-      <c r="C27" s="7">
-        <v>41791</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B28" s="7">
-        <v>41792</v>
+        <v>41785</v>
       </c>
       <c r="C28" s="7">
-        <v>41798</v>
+        <v>41791</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B29" s="7">
-        <v>41799</v>
+        <v>41792</v>
       </c>
       <c r="C29" s="7">
-        <v>41805</v>
+        <v>41798</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B30" s="7">
-        <v>41806</v>
+        <v>41799</v>
       </c>
       <c r="C30" s="7">
-        <v>41812</v>
+        <v>41805</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B31" s="7">
-        <v>41813</v>
+        <v>41806</v>
       </c>
       <c r="C31" s="7">
-        <v>41819</v>
+        <v>41812</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="7">
+        <v>41813</v>
+      </c>
+      <c r="C32" s="7">
+        <v>41819</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="7">
+        <v>41820</v>
+      </c>
+      <c r="C33" s="7">
+        <v>41826</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="7">
-        <v>41820</v>
-      </c>
-      <c r="C32" s="7">
-        <v>41826</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="8"/>
+      <c r="E33" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.62013888888888902" right="0.6" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/project_stuff/project plan.xlsx
+++ b/project_stuff/project plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
   <si>
     <t>Project Plan</t>
   </si>
@@ -132,9 +132,6 @@
     <t>week 13</t>
   </si>
   <si>
-    <t>Eventual extensions of implementation (different types of lights, heterogenous materials…)</t>
-  </si>
-  <si>
     <t>week 14</t>
   </si>
   <si>
@@ -144,18 +141,12 @@
     <t>Validation and optimization</t>
   </si>
   <si>
-    <t>Low level optimization of the code/shaders</t>
-  </si>
-  <si>
     <t>week 16</t>
   </si>
   <si>
     <t>week 17</t>
   </si>
   <si>
-    <t>Comparison with naïve method on different conditions.</t>
-  </si>
-  <si>
     <t>week 18</t>
   </si>
   <si>
@@ -300,11 +291,41 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Writing: Related Works </t>
+  </si>
+  <si>
+    <t>Implementing initial part of my method (reasoning how to do that)</t>
+  </si>
+  <si>
+    <t>Basic implementation continuing</t>
+  </si>
+  <si>
+    <t>Eventual extensions of implementation (different types of lights)</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Implemented naïve implementation on CPU with the base Jensen et al. dipole and the Better Dipole by D'Eon et al. directional dipole shows some overshooting</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -313,7 +334,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -321,41 +341,20 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Writing: Related Works </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Code</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>: Implemented naïve implementation on CPU with the base Jensen et al. dipole and the Better Dipole by D'Eon et al. directional dipole shows some overshooting</t>
-    </r>
-  </si>
-  <si>
-    <t>Implementing initial part of my method (reasoning how to do that)</t>
-  </si>
-  <si>
-    <t>Basic implementation continuing</t>
+    <t>Basic implementation continuing - solving problems related to sampling patterns in textures</t>
+  </si>
+  <si>
+    <t>Reasoned on different sampling patterns (Easter Holidays)</t>
+  </si>
+  <si>
+    <t>Catching up with writing - Related works and Implementation - trying different sampling patterns</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -387,19 +386,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -422,14 +408,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -454,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -480,17 +464,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -864,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,8 +1023,8 @@
       <c r="D13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>51</v>
+      <c r="E13" s="12" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1049,8 +1032,8 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="10"/>
-      <c r="E14" s="13" t="s">
-        <v>52</v>
+      <c r="E14" s="12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1066,8 +1049,8 @@
       <c r="D15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>55</v>
+      <c r="E15" s="14" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1076,10 +1059,10 @@
       <c r="C16" s="7"/>
       <c r="D16" s="8"/>
       <c r="E16" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>24</v>
       </c>
@@ -1092,8 +1075,8 @@
       <c r="D17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>56</v>
+      <c r="E17" s="11" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1101,8 +1084,8 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="12" t="s">
-        <v>54</v>
+      <c r="E18" s="11" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1119,12 +1102,12 @@
         <v>16</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="7">
         <v>41729</v>
@@ -1136,12 +1119,12 @@
         <v>16</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="7">
         <v>41736</v>
@@ -1150,15 +1133,15 @@
         <v>41742</v>
       </c>
       <c r="D21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="B22" s="7">
         <v>41743</v>
@@ -1167,15 +1150,15 @@
         <v>41749</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B23" s="7">
         <v>41750</v>
@@ -1184,13 +1167,15 @@
         <v>41756</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="11"/>
+        <v>36</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B24" s="7">
         <v>41757</v>
@@ -1199,15 +1184,15 @@
         <v>41763</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B25" s="7">
         <v>41764</v>
@@ -1216,15 +1201,15 @@
         <v>41770</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B26" s="7">
         <v>41771</v>
@@ -1233,13 +1218,15 @@
         <v>41777</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B27" s="7">
         <v>41778</v>
@@ -1248,15 +1235,15 @@
         <v>41784</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B28" s="7">
         <v>41785</v>
@@ -1265,15 +1252,15 @@
         <v>41791</v>
       </c>
       <c r="D28" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B29" s="7">
         <v>41792</v>
@@ -1282,15 +1269,15 @@
         <v>41798</v>
       </c>
       <c r="D29" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B30" s="7">
         <v>41799</v>
@@ -1299,15 +1286,15 @@
         <v>41805</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B31" s="7">
         <v>41806</v>
@@ -1316,15 +1303,15 @@
         <v>41812</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B32" s="7">
         <v>41813</v>
@@ -1333,15 +1320,15 @@
         <v>41819</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B33" s="7">
         <v>41820</v>
@@ -1350,7 +1337,7 @@
         <v>41826</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E33" s="8"/>
     </row>

--- a/project_stuff/project plan.xlsx
+++ b/project_stuff/project plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
   <si>
     <t>Project Plan</t>
   </si>
@@ -300,9 +300,6 @@
     <t>Basic implementation continuing</t>
   </si>
   <si>
-    <t>Eventual extensions of implementation (different types of lights)</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -348,6 +345,15 @@
   </si>
   <si>
     <t>Catching up with writing - Related works and Implementation - trying different sampling patterns</t>
+  </si>
+  <si>
+    <t>Finished main implementation. Experimented with LOD on mipmaps and different kind of sampling patterns.</t>
+  </si>
+  <si>
+    <t>Experiment with different sampling patterns. Implementing box filtering with mipmaps</t>
+  </si>
+  <si>
+    <t>Optimization - low level and engine wise. (Maybe) Extension to point and environment maps.</t>
   </si>
 </sst>
 </file>
@@ -418,15 +424,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -434,11 +446,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -474,6 +523,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -847,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,7 +1111,7 @@
         <v>16</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1059,7 +1120,7 @@
       <c r="C16" s="7"/>
       <c r="D16" s="8"/>
       <c r="E16" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1136,7 +1197,7 @@
         <v>16</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1153,7 +1214,7 @@
         <v>16</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1170,24 +1231,24 @@
         <v>36</v>
       </c>
       <c r="E23" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="16">
+        <v>41757</v>
+      </c>
+      <c r="C24" s="16">
+        <v>41763</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="18" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="7">
-        <v>41757</v>
-      </c>
-      <c r="C24" s="7">
-        <v>41763</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1201,10 +1262,10 @@
         <v>41770</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1221,7 +1282,7 @@
         <v>28</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1235,13 +1296,13 @@
         <v>41784</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>38</v>
       </c>
@@ -1255,7 +1316,7 @@
         <v>36</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
